--- a/data/snopes/visualization.xlsx
+++ b/data/snopes/visualization.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="gold questions" sheetId="1" r:id="rId1"/>
+    <sheet name="actual questions (3016)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>fact_rating_phase1</t>
   </si>
@@ -59,12 +60,21 @@
   <si>
     <t>Annotation</t>
   </si>
+  <si>
+    <t>maxVoteCount</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>maxVote</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,16 +105,29 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,8 +135,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -129,15 +167,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="15"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
+    <cellStyle name="Calculation" xfId="15" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -817,11 +858,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1871180680"/>
-        <c:axId val="1871212984"/>
+        <c:axId val="-2094055032"/>
+        <c:axId val="1803482280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1871180680"/>
+        <c:axId val="-2094055032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +871,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1871212984"/>
+        <c:crossAx val="1803482280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -838,7 +879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1871212984"/>
+        <c:axId val="1803482280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1871180680"/>
+        <c:crossAx val="-2094055032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1240,7 +1281,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1275,7 +1316,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1301,7 +1342,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1366,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1349,7 +1390,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1373,7 +1414,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -1397,7 +1438,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -1423,7 +1464,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1447,7 +1488,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +1512,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1495,7 +1536,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -1630,13 +1671,13 @@
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>452</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>157</v>
       </c>
       <c r="F21">
@@ -1657,4 +1698,134 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>280</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2603</v>
+      </c>
+      <c r="E6">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>359</v>
+      </c>
+      <c r="D7">
+        <v>2641</v>
+      </c>
+      <c r="E7">
+        <v>3016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>